--- a/FY20 Winter Menu 11052019.xlsx
+++ b/FY20 Winter Menu 11052019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophiecwebster/Desktop/Gov 1005/milestone3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1DEFBA-52BD-384B-AE9A-DC349B1E9FFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBE63EA-5D4B-8342-A060-40D8822D01B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14600" tabRatio="889" xr2:uid="{4A72F6F0-D83C-4E8A-B804-A21E8CF5896A}"/>
   </bookViews>
@@ -6515,7 +6515,7 @@
   </sheetPr>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:G45"/>
     </sheetView>
   </sheetViews>
